--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -159,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -371,7 +372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,54 +383,55 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>18744637865</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15677893438</v>
       </c>
     </row>
